--- a/Phase 3 - Language Definition/LanguageResources .xlsx
+++ b/Phase 3 - Language Definition/LanguageResources .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="178">
   <si>
     <t>ConceptID</t>
   </si>
@@ -22,6 +22,105 @@
     <t>Gloss-en</t>
   </si>
   <si>
+    <t>UKC-50</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>A point or extent in space</t>
+  </si>
+  <si>
+    <t>UKC-31769</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>The visual percept of a region</t>
+  </si>
+  <si>
+    <t>UKC-15330</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>A structure that has a roof and walls and stands more or less permanently in one place</t>
+  </si>
+  <si>
+    <t>UKC-18979</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>A building where travelers can pay for lodging and meals and other services</t>
+  </si>
+  <si>
+    <t>UKC-22077</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>A building where people go to eat</t>
+  </si>
+  <si>
+    <t>ski_rental_OSM</t>
+  </si>
+  <si>
+    <t>ski_rental, ski rental</t>
+  </si>
+  <si>
+    <t>A shop that rents skis and related accessories.</t>
+  </si>
+  <si>
+    <t>KGE24-2-22</t>
+  </si>
+  <si>
+    <t>sport location</t>
+  </si>
+  <si>
+    <t>A location or path where outdoor sport can be done</t>
+  </si>
+  <si>
+    <t>KGE24-2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiking trail </t>
+  </si>
+  <si>
+    <t>A path or track roughly blazed through wild or hilly country where to go hiking</t>
+  </si>
+  <si>
+    <t>UKC-22959</t>
+  </si>
+  <si>
+    <t>ski trail</t>
+  </si>
+  <si>
+    <t>Trail or slope prepared for skiing</t>
+  </si>
+  <si>
+    <t>cycleway_OSM</t>
+  </si>
+  <si>
+    <t>cycleway</t>
+  </si>
+  <si>
+    <t>A separate way for the use of cyclists.</t>
+  </si>
+  <si>
+    <t>KGE24-2-2</t>
+  </si>
+  <si>
+    <t>rock climbing route</t>
+  </si>
+  <si>
+    <t>A path by which a climber reaches the top of a mountain, a rock face or an ice-covered obstacle.</t>
+  </si>
+  <si>
     <t>coordinates_OSM</t>
   </si>
   <si>
@@ -31,139 +130,22 @@
     <t>A point on our planet can be described by two coordinates: latitude and longitude.</t>
   </si>
   <si>
-    <t>UKC-50</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>A point or extent in space</t>
-  </si>
-  <si>
-    <t>UKC-31769</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>The visual percept of a region</t>
-  </si>
-  <si>
-    <t>UKC-15330</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>A structure that has a roof and walls and stands more or less permanently in one place</t>
-  </si>
-  <si>
-    <t>UKC-18979</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>A building where travelers can pay for lodging and meals and other services</t>
-  </si>
-  <si>
-    <t>UKC-22077</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>A building where people go to eat</t>
-  </si>
-  <si>
-    <t>ski_rental_OSM</t>
-  </si>
-  <si>
-    <t>ski_rental, ski rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A shop that rents skis and related accessories.</t>
-  </si>
-  <si>
-    <t>UKC-2593</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>An active diversion requiring physical exertion and competition</t>
-  </si>
-  <si>
-    <t>KGE24-2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiking trail </t>
-  </si>
-  <si>
-    <t>A path or track roughly blazed through wild or hilly country where to go hiking</t>
-  </si>
-  <si>
-    <t>UKC-22959</t>
-  </si>
-  <si>
-    <t>ski trail</t>
-  </si>
-  <si>
-    <t>Trail or slope prepared for skiing</t>
-  </si>
-  <si>
-    <t>cycleway_OSM</t>
-  </si>
-  <si>
-    <t>cycleway</t>
-  </si>
-  <si>
-    <t>A separate way for the use of cyclists.</t>
-  </si>
-  <si>
-    <t>KGE24-2-2</t>
-  </si>
-  <si>
-    <t>rock climbing route</t>
-  </si>
-  <si>
-    <t>A path by which a climber reaches the top of a mountain, a rock face or an ice-covered obstacle.</t>
-  </si>
-  <si>
-    <t>UKC-45429</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>The angular distance between a point on any meridian and the prime meridian at Greenwich</t>
-  </si>
-  <si>
-    <t>UKC-45423</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>The angular distance between an imaginary line around a heavenly body parallel to its equator and the equator itself</t>
-  </si>
-  <si>
     <t>UKC-38423</t>
   </si>
   <si>
-    <t>identifier, OSMId</t>
+    <t>identifier</t>
   </si>
   <si>
     <t>A symbol that establishes the identity of the one bearing it</t>
   </si>
   <si>
-    <t>UKC-45514</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>The particular portion of space occupied by something</t>
+    <t>KGE24-2-23</t>
+  </si>
+  <si>
+    <t>OSMId</t>
+  </si>
+  <si>
+    <t>A symbol specific to OSM that establishes the identity of the one bearing it</t>
   </si>
   <si>
     <t>UKC-2</t>
@@ -184,13 +166,22 @@
     <t>Elevation especially above sea level or above the earth's surface</t>
   </si>
   <si>
-    <t>UKC-31362</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>A subdivision of a particular kind of thing</t>
+    <t>KGE-24-2-19</t>
+  </si>
+  <si>
+    <t>building type</t>
+  </si>
+  <si>
+    <t>A subdivision of a particular kind of building</t>
+  </si>
+  <si>
+    <t>KGE-24-2-20</t>
+  </si>
+  <si>
+    <t>sport type</t>
+  </si>
+  <si>
+    <t>A subdivision of a particular kind of sport</t>
   </si>
   <si>
     <t>UKC-34007</t>
@@ -202,6 +193,9 @@
     <t>The number is used in calling a particular telephone</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>UKC-45537</t>
   </si>
   <si>
@@ -265,13 +259,13 @@
     <t>Is used to provide the full URL to the official website for the related feature.</t>
   </si>
   <si>
-    <t>UKC-2880</t>
+    <t>KGE24-2-25</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>Work done by one person or group that benefits another</t>
+    <t>Range of services offered by the hotel to a customer</t>
   </si>
   <si>
     <t>UKC-62880</t>
@@ -283,21 +277,15 @@
     <t>The amount of money needed to purchase something</t>
   </si>
   <si>
+    <t>beds_OSM</t>
+  </si>
+  <si>
     <t>beds</t>
   </si>
   <si>
     <t>Beds indicates the number of beds in a hotel or hospital</t>
   </si>
   <si>
-    <t>UKC-21029</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>A way especially designed for a particular use</t>
-  </si>
-  <si>
     <t>UKC-46040</t>
   </si>
   <si>
@@ -307,13 +295,13 @@
     <t>A steep rugged rock or cliff</t>
   </si>
   <si>
-    <t>UKC-45187</t>
+    <t>KGE24-2-24</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
-    <t>The territory occupied by a nation</t>
+    <t>The territory occupied by a nation where the crag is located</t>
   </si>
   <si>
     <t>UKC-45656</t>
@@ -367,8 +355,7 @@
     <t xml:space="preserve">sector </t>
   </si>
   <si>
-    <t>A sub-area within the crag where the route is located, offering a more
-precise location</t>
+    <t>A sub-area within the crag where the route is located, offering a more precise location</t>
   </si>
   <si>
     <t>KGE24-2-5</t>
@@ -383,7 +370,7 @@
     <t>KGE24-2-6</t>
   </si>
   <si>
-    <t>cluster</t>
+    <t>route category</t>
   </si>
   <si>
     <t>Indicator that describe some characteristics of the rock climbing route</t>
@@ -407,6 +394,15 @@
     <t>Indicator that identifies whether a certain activity or object is recommended, neutral or not recommended for an average tall person</t>
   </si>
   <si>
+    <t>KGE24-2-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service type </t>
+  </si>
+  <si>
+    <t>A subdivision of a particular kind of hotel service</t>
+  </si>
+  <si>
     <t>UKC-2237</t>
   </si>
   <si>
@@ -446,7 +442,7 @@
     <t>KGE24-2-8</t>
   </si>
   <si>
-    <t>cluster-0</t>
+    <t>soft_route</t>
   </si>
   <si>
     <t>Soft routes, easier to climb</t>
@@ -455,7 +451,7 @@
     <t>KGE24-2-9</t>
   </si>
   <si>
-    <t>cluster-1</t>
+    <t>preferred_by_women</t>
   </si>
   <si>
     <t>Routes preferred by women, indicating gender-influenced popularity</t>
@@ -464,7 +460,7 @@
     <t>KGE24-2-10</t>
   </si>
   <si>
-    <t>cluster-2</t>
+    <t>famous_route</t>
   </si>
   <si>
     <t>Famous routes, known and recommended in the community</t>
@@ -473,7 +469,7 @@
     <t>KGE24-2-11</t>
   </si>
   <si>
-    <t>cluster-3</t>
+    <t>hard_route</t>
   </si>
   <si>
     <t>Very hard routes, challenging even for experienced climbers</t>
@@ -482,7 +478,7 @@
     <t>KGE24-2-12</t>
   </si>
   <si>
-    <t>cluster-4</t>
+    <t>repeated route</t>
   </si>
   <si>
     <t>Highly repeated routes, popular and frequently climbed</t>
@@ -491,7 +487,7 @@
     <t>KGE24-2-13</t>
   </si>
   <si>
-    <t>cluster-5</t>
+    <t>chipped_route</t>
   </si>
   <si>
     <t>Chipped routes with a softer grading</t>
@@ -500,7 +496,7 @@
     <t>KGE24-2-14</t>
   </si>
   <si>
-    <t>cluster-6</t>
+    <t>non_chipped_route</t>
   </si>
   <si>
     <t>Traditional, unmodified routes that remain close to natural conditions</t>
@@ -509,7 +505,7 @@
     <t>KGE24-2-15</t>
   </si>
   <si>
-    <t>cluster-7</t>
+    <t>easy_on_sight</t>
   </si>
   <si>
     <t>Routes that are easy to on-sight but not frequently repeated</t>
@@ -518,7 +514,7 @@
     <t>KGE24-2-16</t>
   </si>
   <si>
-    <t>cluster-8</t>
+    <t>less_repeated</t>
   </si>
   <si>
     <t>Iconic routes, renowned yet less repeated and often less traditional</t>
@@ -555,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -580,19 +576,23 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10.0"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -647,17 +647,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -691,6 +680,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -715,51 +715,51 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -770,17 +770,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,7 +1002,7 @@
     <col customWidth="1" min="1" max="1" width="20.38"/>
     <col customWidth="1" min="2" max="2" width="26.63"/>
     <col customWidth="1" min="3" max="3" width="74.63"/>
-    <col customWidth="1" min="4" max="4" width="45.13"/>
+    <col customWidth="1" min="4" max="4" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
@@ -1021,679 +1021,672 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="26.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="26.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="26.25" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="26.25" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="26.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" ht="26.25" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="26.25" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16"/>
     </row>
     <row r="18" ht="26.25" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" ht="26.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="D20" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" ht="26.25" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="22" ht="26.25" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C24" s="18" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" ht="26.25" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" ht="26.25" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" ht="26.25" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" ht="26.25" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" ht="26.25" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="C30" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31" ht="26.25" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" ht="26.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" ht="26.25" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="34" ht="26.25" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" ht="26.25" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" ht="26.25" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="37" ht="26.25" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" ht="26.25" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="26.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="40" ht="26.25" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" ht="26.25" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" ht="26.25" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="B42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="43" ht="26.25" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="B43" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="44" ht="26.25" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="20" t="s">
         <v>130</v>
       </c>
+      <c r="B44" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="45" ht="26.25" customHeight="1">
-      <c r="A45" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="B45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" ht="26.25" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="47" ht="26.25" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="48" ht="26.25" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="A48" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="B48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" ht="26.25" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="B49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="50" ht="26.25" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="51" ht="26.25" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="B51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="52" ht="26.25" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="53" ht="26.25" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="B53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="54" ht="26.25" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="B54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="55" ht="26.25" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="B55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="56" ht="26.25" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="B56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="57" ht="26.25" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="B57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" ht="26.25" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="23" t="s">
+      <c r="A58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" ht="26.25" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="A59" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="A60" s="12" t="s">
+      <c r="B59" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>178</v>
-      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
     </row>
     <row r="61">
       <c r="A61" s="25"/>
@@ -6385,23 +6378,18 @@
       <c r="B998" s="26"/>
       <c r="C998" s="27"/>
     </row>
-    <row r="999">
-      <c r="A999" s="25"/>
-      <c r="B999" s="26"/>
-      <c r="C999" s="27"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A8"/>
-    <hyperlink r:id="rId3" ref="A12"/>
-    <hyperlink r:id="rId4" ref="A23"/>
-    <hyperlink r:id="rId5" ref="A25"/>
-    <hyperlink r:id="rId6" ref="A26"/>
-    <hyperlink r:id="rId7" ref="A27"/>
-    <hyperlink r:id="rId8" ref="A28"/>
-    <hyperlink r:id="rId9" ref="A31"/>
-    <hyperlink r:id="rId10" ref="A60"/>
+    <hyperlink r:id="rId1" ref="A7"/>
+    <hyperlink r:id="rId2" ref="A11"/>
+    <hyperlink r:id="rId3" ref="A13"/>
+    <hyperlink r:id="rId4" ref="A22"/>
+    <hyperlink r:id="rId5" ref="A24"/>
+    <hyperlink r:id="rId6" ref="A25"/>
+    <hyperlink r:id="rId7" ref="A26"/>
+    <hyperlink r:id="rId8" ref="A27"/>
+    <hyperlink r:id="rId9" ref="A30"/>
+    <hyperlink r:id="rId10" ref="A59"/>
   </hyperlinks>
   <drawing r:id="rId11"/>
 </worksheet>
